--- a/_data/cat1.xlsx
+++ b/_data/cat1.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mike/code/servicecat/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0F119B06-D035-E14E-99EF-DEE55616A3FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA065195-4876-C843-89DC-40157D0741AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8100" yWindow="-27960" windowWidth="37580" windowHeight="19680"/>
+    <workbookView xWindow="-8100" yWindow="-27960" windowWidth="37580" windowHeight="19680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="instructions" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="66">
   <si>
     <t>Title</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Connect</t>
   </si>
   <si>
-    <t>Undergraduates Postgraduates Researchers Teachers AllStaff</t>
-  </si>
-  <si>
     <t>Lorum</t>
   </si>
   <si>
@@ -141,9 +138,6 @@
     <t>MyNottingham app</t>
   </si>
   <si>
-    <t>Undergraduates Postgraduates</t>
-  </si>
-  <si>
     <t>Access to timetables, maps, programme materials and guides,  all accessible through your phone, helping you make the most of your time at University</t>
   </si>
   <si>
@@ -156,9 +150,6 @@
     <t>Research</t>
   </si>
   <si>
-    <t>Researchers AllStaff</t>
-  </si>
-  <si>
     <t>An easy-to-use web-based system designed to decrease the administrative burden of managing the research lifecycle.</t>
   </si>
   <si>
@@ -169,9 +160,6 @@
   </si>
   <si>
     <t>Teaching</t>
-  </si>
-  <si>
-    <t>Teachers AllStaff</t>
   </si>
   <si>
     <t>Campus Solutions is used by staff to administer student records. Students also use the system (MyNottingham website) to apply to the University and update their details.</t>
@@ -269,7 +257,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1151,11 +1139,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A16" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1166,30 +1154,30 @@
   <sheetData>
     <row r="1" spans="1:2" ht="34" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -1197,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1210,47 +1198,47 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -1258,7 +1246,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1266,7 +1254,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1274,67 +1262,7 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1343,11 +1271,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1370,19 +1298,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>3</v>
@@ -1406,33 +1334,33 @@
         <v>Undergraduates Postgraduates Researchers Teachers AllStaff</v>
       </c>
       <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
         <v>53</v>
-      </c>
-      <c r="E2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -1442,141 +1370,141 @@
         <v>Undergraduates Postgraduates Researchers Teachers AllStaff</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
         <v>12</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>13</v>
-      </c>
-      <c r="K3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
         <v>Undergraduates Postgraduates Researchers Teachers AllStaff</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
         <v>17</v>
-      </c>
-      <c r="K4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
         <v>Undergraduates Postgraduates Researchers Teachers AllStaff</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
         <v>21</v>
-      </c>
-      <c r="K5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
         <v>Undergraduates Postgraduates Researchers Teachers AllStaff</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
         <v>23</v>
-      </c>
-      <c r="K6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -1586,33 +1514,33 @@
         <v>Undergraduates Postgraduates Researchers Teachers AllStaff</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" t="s">
         <v>26</v>
-      </c>
-      <c r="K7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -1622,69 +1550,69 @@
         <v>Undergraduates Postgraduates Researchers Teachers AllStaff</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" t="s">
         <v>29</v>
-      </c>
-      <c r="K8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
         <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
         <v>Undergraduates Postgraduates Researchers Teachers AllStaff</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" t="s">
         <v>33</v>
-      </c>
-      <c r="K9" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -1694,97 +1622,97 @@
         <v xml:space="preserve">Undergraduates Postgraduates   </v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  Researchers  AllStaff</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">   Teachers AllStaff</v>
       </c>
       <c r="G12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">    AllStaff</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
